--- a/SCBAA/2018/Region 7.xlsx
+++ b/SCBAA/2018/Region 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9180FC-7979-4AB4-935C-E267DA3C8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D940FD8-6116-4381-8A7D-39E8CF527492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="1035" windowWidth="14250" windowHeight="12495" firstSheet="5" activeTab="9" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="5" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagbilaran" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1305,6 +1312,10 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="15" xfId="81" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="16" xfId="81" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="6" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="17" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="15" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="16" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1317,10 +1328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="6" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="17" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="15" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="16" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="84">
     <cellStyle name="20% - Accent1 2" xfId="32" xr:uid="{FB9CB918-83C1-4350-B8EF-A8207695D45A}"/>
@@ -1733,54 +1740,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1794,22 +1801,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2909,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2922,54 +2929,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2983,22 +2990,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3034,7 +3041,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="89">
         <v>104108969.31999999</v>
       </c>
     </row>
@@ -3045,7 +3052,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="89">
         <v>156102493.19</v>
       </c>
     </row>
@@ -3056,7 +3063,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="90">
         <v>13713768.67</v>
       </c>
     </row>
@@ -3088,7 +3095,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="89">
         <v>11840065.16</v>
       </c>
     </row>
@@ -3099,7 +3106,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="89">
         <v>50517146.399999999</v>
       </c>
     </row>
@@ -3110,7 +3117,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="93">
+      <c r="E18" s="89">
         <v>12642870.060000001</v>
       </c>
     </row>
@@ -3142,7 +3149,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="95">
+      <c r="E21" s="91">
         <v>569178720</v>
       </c>
     </row>
@@ -3153,7 +3160,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="95">
+      <c r="E22" s="91">
         <v>1371373.79</v>
       </c>
     </row>
@@ -3195,7 +3202,7 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="91">
         <v>1559625.31</v>
       </c>
     </row>
@@ -3226,7 +3233,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="95">
+      <c r="E29" s="91">
         <v>1498461</v>
       </c>
     </row>
@@ -3358,7 +3365,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="95">
+      <c r="E42" s="91">
         <v>97353302.700000003</v>
       </c>
     </row>
@@ -3369,7 +3376,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="95">
+      <c r="E43" s="91">
         <v>163218484.19999999</v>
       </c>
     </row>
@@ -3380,7 +3387,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="95">
+      <c r="E44" s="91">
         <v>79030587.090000004</v>
       </c>
     </row>
@@ -3411,7 +3418,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="95">
+      <c r="E47" s="91">
         <v>62213711.100000001</v>
       </c>
     </row>
@@ -3422,7 +3429,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="95">
+      <c r="E48" s="91">
         <v>48277223.289999999</v>
       </c>
     </row>
@@ -3442,7 +3449,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="95">
+      <c r="E50" s="91">
         <v>23113121.379999999</v>
       </c>
     </row>
@@ -3453,7 +3460,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="95">
+      <c r="E51" s="91">
         <v>14610686.16</v>
       </c>
     </row>
@@ -3568,7 +3575,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="95">
+      <c r="E62" s="91">
         <v>7626986.1299999999</v>
       </c>
     </row>
@@ -3579,7 +3586,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="96">
+      <c r="E63" s="92">
         <v>250831668.63</v>
       </c>
     </row>
@@ -3610,7 +3617,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="95">
+      <c r="E66" s="91">
         <v>25495325.039999999</v>
       </c>
     </row>
@@ -3621,7 +3628,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="95">
+      <c r="E67" s="91">
         <v>167108005.21000001</v>
       </c>
     </row>
@@ -3703,7 +3710,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="95">
+      <c r="E75" s="91">
         <v>401.5</v>
       </c>
     </row>
@@ -3745,7 +3752,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="95">
+      <c r="E79" s="91">
         <v>16316230.48</v>
       </c>
     </row>
@@ -3776,7 +3783,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="95">
+      <c r="E82" s="91">
         <v>85178780.060000002</v>
       </c>
     </row>
@@ -3869,7 +3876,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="95">
+      <c r="E91" s="91">
         <v>110000</v>
       </c>
     </row>
@@ -3947,7 +3954,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="95">
+      <c r="E98" s="91">
         <v>23186516.82</v>
       </c>
     </row>
@@ -4112,54 +4119,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4173,22 +4180,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5305,54 +5312,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5366,22 +5373,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6495,54 +6502,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6556,22 +6563,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7685,54 +7692,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7746,22 +7753,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8878,54 +8885,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8939,22 +8946,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10060,7 +10067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F45F8-7851-401B-8CD0-4C55E5E3A47E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -10073,54 +10080,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10134,22 +10141,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10304,7 +10311,9 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="61"/>
+      <c r="E22" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -11261,54 +11270,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -11322,22 +11331,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12451,54 +12460,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -12512,22 +12521,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">

--- a/SCBAA/2018/Region 7.xlsx
+++ b/SCBAA/2018/Region 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D940FD8-6116-4381-8A7D-39E8CF527492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E519595E-5240-4CD2-BF92-12C6C8F47265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="5" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="3" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagbilaran" sheetId="1" r:id="rId1"/>
@@ -4107,7 +4107,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,7 +4231,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="43">
-        <f>12478232.47+16027077.69</f>
         <v>28505310.16</v>
       </c>
     </row>
@@ -4265,7 +4264,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>87714066.939999998</v>
       </c>
     </row>
@@ -4319,7 +4317,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>93574374.379999995</v>
       </c>
     </row>
@@ -4510,7 +4507,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>781987380.18999994</v>
       </c>
     </row>
@@ -4578,7 +4574,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="43">
-        <f>7584420.35-0</f>
         <v>7584420.3499999996</v>
       </c>
     </row>
@@ -4820,7 +4815,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="43">
-        <f>124334429.97-25696926.48+12000000</f>
         <v>110637503.48999999</v>
       </c>
     </row>
@@ -4832,7 +4826,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="43">
-        <f>7720540.33+25696926.48-12000000</f>
         <v>21417466.810000002</v>
       </c>
     </row>
@@ -5090,7 +5083,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>532054273.41999996</v>
       </c>
     </row>
@@ -5265,7 +5257,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>227140076.64000002</v>
       </c>
     </row>
@@ -5277,7 +5268,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>759194350.05999994</v>
       </c>
     </row>
@@ -5300,7 +5290,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="30" sqref="E9 E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5446,7 +5436,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="77">
-        <f>94505923.34+48800985.67</f>
         <v>143306909.00999999</v>
       </c>
     </row>
@@ -5458,7 +5447,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>2855729245.9300003</v>
       </c>
     </row>
@@ -5512,7 +5500,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>1061883040.51</v>
       </c>
     </row>
@@ -5703,7 +5690,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>5974130355.8000002</v>
       </c>
     </row>
@@ -6280,7 +6266,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>5805572781.6599998</v>
       </c>
     </row>
@@ -6455,7 +6440,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>226045928.34</v>
       </c>
     </row>
@@ -6467,7 +6451,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>6031618710</v>
       </c>
     </row>
@@ -6489,8 +6472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75B207C-2435-4DB1-A1BB-5CF7E571EC37}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F111" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6647,7 +6630,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>74189826.799999997</v>
       </c>
     </row>
@@ -6701,7 +6683,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>32646184.390000001</v>
       </c>
     </row>
@@ -6892,7 +6873,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>660078931.21000004</v>
       </c>
     </row>
@@ -7469,7 +7449,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>406861286.96000004</v>
       </c>
     </row>
@@ -7527,7 +7506,6 @@
         <v>12</v>
       </c>
       <c r="E98" s="79">
-        <f>1400204</f>
         <v>1400204</v>
       </c>
     </row>
@@ -7645,7 +7623,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>182606012.67000002</v>
       </c>
     </row>
@@ -7657,7 +7634,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>589467299.63000011</v>
       </c>
     </row>
@@ -7679,8 +7655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBBFCB5-EF77-4E40-A1C7-2ACD7D1864D9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7805,7 +7781,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="81">
-        <f>1262480.92+4580303.28</f>
         <v>5842784.2000000002</v>
       </c>
     </row>
@@ -7828,7 +7803,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="82">
-        <f>21090343.7+694381.6</f>
         <v>21784725.300000001</v>
       </c>
     </row>
@@ -7840,7 +7814,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>29944153.07</v>
       </c>
     </row>
@@ -7883,7 +7856,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="81">
-        <f>221989.92+21678.52</f>
         <v>243668.44</v>
       </c>
     </row>
@@ -7895,7 +7867,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>45324497.879999995</v>
       </c>
     </row>
@@ -8086,7 +8057,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>541552822.31000006</v>
       </c>
     </row>
@@ -8663,7 +8633,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>320048905.49000001</v>
       </c>
     </row>
@@ -8838,7 +8807,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>80641501.140000001</v>
       </c>
     </row>
@@ -8850,7 +8818,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>400690406.63</v>
       </c>
     </row>
@@ -8873,7 +8840,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,7 +8964,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="83">
-        <f>247150103.64+114747696.02</f>
         <v>361897799.65999997</v>
       </c>
     </row>
@@ -9020,7 +8986,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="84">
-        <f>50931133.94+10297112.46</f>
         <v>61228246.399999999</v>
       </c>
     </row>
@@ -9032,7 +8997,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1276214967.5799999</v>
       </c>
     </row>
@@ -9086,7 +9050,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>223430005.34999999</v>
       </c>
     </row>
@@ -9277,7 +9240,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2411229329.9399996</v>
       </c>
     </row>
@@ -9365,7 +9327,6 @@
         <v>10</v>
       </c>
       <c r="E46" s="83">
-        <f>16722249.26+7788780.77</f>
         <v>24511030.030000001</v>
       </c>
     </row>
@@ -9377,7 +9338,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="83">
-        <f>12302703.86+22066991.63</f>
         <v>34369695.489999995</v>
       </c>
     </row>
@@ -9856,7 +9816,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1618025058.6500001</v>
       </c>
     </row>
@@ -9914,7 +9873,6 @@
         <v>12</v>
       </c>
       <c r="E98" s="83">
-        <f>20780692.33+69582070.45</f>
         <v>90362762.780000001</v>
       </c>
     </row>
@@ -10024,7 +9982,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="83">
-        <f>92009234.06+22763582.75</f>
         <v>114772816.81</v>
       </c>
     </row>
@@ -10033,7 +9990,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>272171220.19000006</v>
       </c>
     </row>
@@ -10045,7 +10001,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1890196278.8400002</v>
       </c>
     </row>
@@ -10067,7 +10022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F45F8-7851-401B-8CD0-4C55E5E3A47E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -12447,8 +12402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF4FB0C-1A1B-4B39-B14E-B941CC55E419}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12573,7 +12528,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="87">
-        <f>106904832.08+74043495.32</f>
         <v>180948327.39999998</v>
       </c>
     </row>
@@ -12607,7 +12561,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="54">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>432524763.67000002</v>
       </c>
     </row>
@@ -12661,7 +12614,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="54">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>63671743.789999999</v>
       </c>
     </row>
@@ -12852,7 +12804,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="54">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1171079020.73</v>
       </c>
     </row>
@@ -12951,7 +12902,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="87">
-        <f>14479489.08+1239077.56</f>
         <v>15718566.640000001</v>
       </c>
     </row>
@@ -12963,7 +12913,6 @@
         <v>12</v>
       </c>
       <c r="E48" s="87">
-        <f>130000+59224281.75</f>
         <v>59354281.75</v>
       </c>
     </row>
@@ -13431,7 +13380,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="59">
-        <f>SUM(E41:E92)</f>
         <v>928603957.78999984</v>
       </c>
     </row>
@@ -13606,7 +13554,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>88643273.769999996</v>
       </c>
     </row>
@@ -13618,7 +13565,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1017247231.5599998</v>
       </c>
     </row>
